--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mustafizur Rahman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>19/01/2018</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1748,7 +1799,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1938,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -1896,7 +1945,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1936,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2136,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -2096,7 +2143,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2539,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2600,7 +2643,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2640,7 +2683,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -2648,7 +2690,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2688,7 +2730,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>13/05/2019</t>
@@ -2696,7 +2737,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2736,7 +2777,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -2744,7 +2784,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2784,7 +2824,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>02/06/2019</t>
@@ -2792,7 +2831,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2844,7 +2883,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2896,7 +2935,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2936,7 +2975,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -2944,7 +2982,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2984,7 +3022,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -2992,7 +3029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3032,7 +3069,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>24/06/2019</t>
@@ -3040,7 +3076,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3092,7 +3128,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3144,7 +3180,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3196,7 +3232,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3248,7 +3284,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3288,7 +3324,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>01/03/2020</t>
@@ -3296,7 +3331,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3336,7 +3371,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -3344,7 +3378,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3384,7 +3418,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -3392,7 +3425,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3432,7 +3465,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -3440,7 +3472,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3480,7 +3512,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -3488,7 +3519,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3540,7 +3571,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3580,7 +3611,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -3588,7 +3618,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3640,7 +3670,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3680,7 +3710,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -3688,7 +3717,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3740,7 +3769,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3792,7 +3821,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3832,7 +3861,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -3840,7 +3868,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3880,7 +3908,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>23/02/2022</t>
@@ -3888,7 +3915,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3928,7 +3955,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -3936,7 +3962,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3988,7 +4014,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4028,7 +4054,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>18/03/2022</t>
@@ -4036,7 +4061,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4088,7 +4113,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4128,7 +4153,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -4136,7 +4160,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4176,7 +4200,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -4184,7 +4207,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4224,7 +4247,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -4232,7 +4254,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4272,7 +4294,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>16/07/2022</t>
@@ -4280,7 +4301,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4320,7 +4341,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -4328,7 +4348,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4380,7 +4400,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4432,7 +4452,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4472,7 +4492,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>07/12/2022</t>
@@ -4480,7 +4499,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4532,7 +4551,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4584,7 +4603,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4636,7 +4655,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4688,7 +4707,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4740,7 +4759,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4779,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4801,7 +4820,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4838,7 +4857,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4875,7 +4894,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4912,7 +4931,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4949,7 +4968,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4986,7 +5005,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5023,7 +5042,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5060,7 +5079,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5097,7 +5116,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5134,7 +5153,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5171,7 +5190,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5208,7 +5227,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5245,7 +5264,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5282,7 +5301,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5319,7 +5338,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5356,7 +5375,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5393,7 +5412,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5430,7 +5449,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5467,7 +5486,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5504,7 +5523,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5541,7 +5560,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5578,7 +5597,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5615,7 +5634,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5652,7 +5671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5689,7 +5708,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5726,7 +5745,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5763,7 +5782,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5800,7 +5819,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5837,7 +5856,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5874,7 +5893,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5911,7 +5930,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5948,7 +5967,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5985,7 +6004,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6022,7 +6041,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6059,7 +6078,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6096,7 +6115,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4214</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6133,7 +6152,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4217</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6170,7 +6189,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6207,7 +6226,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6244,7 +6263,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6281,7 +6300,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6318,7 +6337,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6355,7 +6374,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6392,7 +6411,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6429,7 +6448,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6466,7 +6485,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6503,7 +6522,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6540,7 +6559,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6577,7 +6596,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6614,7 +6633,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6651,7 +6670,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6688,7 +6707,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6725,7 +6744,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6762,7 +6781,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6799,7 +6818,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6836,7 +6855,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6873,7 +6892,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6910,7 +6929,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6947,7 +6966,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6984,7 +7003,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7021,7 +7040,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7058,7 +7077,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7095,7 +7114,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7132,7 +7151,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7169,7 +7188,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7206,7 +7225,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7243,7 +7262,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7280,7 +7299,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7317,7 +7336,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7354,7 +7373,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7391,7 +7410,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7428,7 +7447,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7465,7 +7484,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7502,7 +7521,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7539,7 +7558,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7576,7 +7595,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7613,7 +7632,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7650,7 +7669,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7687,7 +7706,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7724,7 +7743,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7761,7 +7780,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7798,7 +7817,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7835,7 +7854,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -7872,7 +7891,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -7909,7 +7928,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7946,7 +7965,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7974,6 +7993,409 @@
           <t>0/31</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8051,10 +8052,6 @@
           <t>4465</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8100,9 +8097,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8145,10 +8139,6 @@
           <t>4539</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8164,9 +8154,6 @@
       <c r="B7" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8192,7 +8179,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8208,9 +8194,6 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8223,15 +8206,282 @@
           <t>4606</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8239,25 +8489,12 @@
           <t>4611</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8265,23 +8502,14 @@
           <t>4616</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8291,13 +8519,14 @@
           <t>4626</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8307,11 +8536,16 @@
           <t>4628</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8319,11 +8553,12 @@
           <t>4679</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8331,11 +8566,16 @@
           <t>4682</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8345,9 +8585,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8355,11 +8592,12 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8367,11 +8605,12 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8379,11 +8618,16 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8393,9 +8637,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_4414.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>21/06/2015</t>
@@ -761,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/07/2015</t>
@@ -808,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -855,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -1110,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>25/03/2017</t>
@@ -1157,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -1169,7 +1173,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1256,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -1355,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/05/2017</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -1548,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1595,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -1642,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>15/01/2018</t>
@@ -1689,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>19/01/2018</t>
@@ -1892,6 +1904,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -1939,6 +1952,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>25/07/2018</t>
@@ -1986,6 +2000,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -2137,6 +2152,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -2340,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -2387,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>09/12/2018</t>
@@ -2434,6 +2452,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -2481,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/12/2018</t>
@@ -2684,6 +2704,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>07/05/2019</t>
@@ -2731,6 +2752,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>13/05/2019</t>
@@ -2778,6 +2800,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -2825,6 +2848,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>02/06/2019</t>
@@ -2976,6 +3000,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -3023,6 +3048,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -3070,6 +3096,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>24/06/2019</t>
@@ -3325,6 +3352,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>01/03/2020</t>
@@ -3372,6 +3400,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>06/03/2020</t>
@@ -3419,6 +3448,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>20/01/2021</t>
@@ -3466,6 +3496,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>22/01/2021</t>
@@ -3513,6 +3544,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>25/01/2021</t>
@@ -3612,6 +3644,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -3711,6 +3744,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>23/05/2021</t>
@@ -3862,6 +3896,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>20/07/2021</t>
@@ -3909,6 +3944,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>23/02/2022</t>
@@ -3956,6 +3992,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>25/02/2022</t>
@@ -4055,6 +4092,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>18/03/2022</t>
@@ -4154,6 +4192,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>23/03/2022</t>
@@ -4201,6 +4240,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -4248,6 +4288,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>13/07/2022</t>
@@ -4295,6 +4336,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>16/07/2022</t>
@@ -4342,6 +4384,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>05/08/2022</t>
@@ -4493,6 +4536,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>07/12/2022</t>
@@ -7998,647 +8042,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>